--- a/base/IMPULSA GESTOR VENCIDOS Y CASTIGADOS octubre25.xlsx
+++ b/base/IMPULSA GESTOR VENCIDOS Y CASTIGADOS octubre25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\RECUPERADO\IMPULSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Documents\CallCenter-Excel\CLIENTE-IDE\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487993A1-F9C2-45A9-AEAB-37BAB982C587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E2B65-03DC-45A6-A400-2351506A26F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>IDCARTERA</t>
   </si>
   <si>
-    <t xml:space="preserve">DNI </t>
-  </si>
-  <si>
     <t>NOMBRE Y APELLIDOS</t>
   </si>
   <si>
@@ -51,24 +48,12 @@
     <t>PRODUCTO</t>
   </si>
   <si>
-    <t xml:space="preserve">FECHA CASTIGO </t>
-  </si>
-  <si>
     <t>MONEDA</t>
   </si>
   <si>
     <t>CAPITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">DEUDA TOTAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPAÑA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RANGO </t>
-  </si>
-  <si>
     <t>DIRECCION COMPLETA</t>
   </si>
   <si>
@@ -1441,6 +1426,21 @@
   </si>
   <si>
     <t>15/08/2025</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>FECHA CASTIGO</t>
+  </si>
+  <si>
+    <t>DEUDA TOTAL</t>
+  </si>
+  <si>
+    <t>CAMPAÑA</t>
+  </si>
+  <si>
+    <t>RANGO</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1775,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1796,58 +1798,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="M1" t="s">
+        <v>470</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" t="s">
+        <v>459</v>
+      </c>
+      <c r="P1" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="S1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>464</v>
-      </c>
-      <c r="P1" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1855,28 +1857,28 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2">
         <v>7113.59</v>
@@ -1888,13 +1890,13 @@
         <v>1259.9000000000001</v>
       </c>
       <c r="M2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1905,28 +1907,28 @@
         <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2">
         <v>7388.59</v>
@@ -1938,13 +1940,13 @@
         <v>593.34</v>
       </c>
       <c r="M3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1955,28 +1957,28 @@
         <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2">
         <v>88601.71</v>
@@ -1988,13 +1990,13 @@
         <v>2619.54</v>
       </c>
       <c r="M4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -2005,28 +2007,28 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <v>48564.01</v>
@@ -2038,13 +2040,13 @@
         <v>3523.86</v>
       </c>
       <c r="M5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N5" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -2055,28 +2057,28 @@
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
         <v>10698.21</v>
@@ -2088,13 +2090,13 @@
         <v>2136.42</v>
       </c>
       <c r="M6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -2105,28 +2107,28 @@
         <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J7" s="2">
         <v>24320.560000000001</v>
@@ -2138,13 +2140,13 @@
         <v>1792.41</v>
       </c>
       <c r="M7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P7">
         <v>3</v>
@@ -2155,28 +2157,28 @@
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2">
         <v>9944.98</v>
@@ -2188,13 +2190,13 @@
         <v>991.19</v>
       </c>
       <c r="M8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P8">
         <v>3</v>
@@ -2205,28 +2207,28 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J9" s="2">
         <v>53626.44</v>
@@ -2238,13 +2240,13 @@
         <v>2729.19</v>
       </c>
       <c r="M9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P9">
         <v>3</v>
@@ -2255,28 +2257,28 @@
         <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J10" s="2">
         <v>16965.02</v>
@@ -2288,13 +2290,13 @@
         <v>3147.14</v>
       </c>
       <c r="M10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N10" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P10">
         <v>3</v>
@@ -2305,28 +2307,28 @@
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J11" s="2">
         <v>32214.240000000002</v>
@@ -2338,13 +2340,13 @@
         <v>2069.61</v>
       </c>
       <c r="M11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="O11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P11">
         <v>3</v>
@@ -2355,28 +2357,28 @@
         <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2">
         <v>5666.19</v>
@@ -2388,13 +2390,13 @@
         <v>2028.55</v>
       </c>
       <c r="M12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="O12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P12">
         <v>3</v>
@@ -2405,28 +2407,28 @@
         <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C13" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J13" s="2">
         <v>3687.44</v>
@@ -2438,13 +2440,13 @@
         <v>1553.69</v>
       </c>
       <c r="M13" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N13" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P13">
         <v>3</v>
@@ -2455,28 +2457,28 @@
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G14" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2">
         <v>20121.14</v>
@@ -2488,13 +2490,13 @@
         <v>2237.65</v>
       </c>
       <c r="M14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N14" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P14">
         <v>3</v>
@@ -2505,28 +2507,28 @@
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J15" s="2">
         <v>8579.9500000000007</v>
@@ -2538,13 +2540,13 @@
         <v>858.04</v>
       </c>
       <c r="M15" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N15" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="P15">
         <v>3</v>
@@ -2555,28 +2557,28 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J16" s="2">
         <v>10990.63</v>
@@ -2588,13 +2590,13 @@
         <v>1140.6300000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N16" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P16">
         <v>3</v>
@@ -2605,28 +2607,28 @@
         <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J17" s="2">
         <v>2409.1999999999998</v>
@@ -2638,13 +2640,13 @@
         <v>1695.52</v>
       </c>
       <c r="M17" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N17" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P17">
         <v>3</v>
@@ -2655,28 +2657,28 @@
         <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J18" s="2">
         <v>1453.16</v>
@@ -2688,13 +2690,13 @@
         <v>773.52</v>
       </c>
       <c r="M18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N18" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P18">
         <v>3</v>
@@ -2705,28 +2707,28 @@
         <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J19" s="2">
         <v>4531.09</v>
@@ -2738,13 +2740,13 @@
         <v>2098.09</v>
       </c>
       <c r="M19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N19" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="O19" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P19">
         <v>3</v>
@@ -2755,28 +2757,28 @@
         <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J20" s="2">
         <v>791.56</v>
@@ -2788,13 +2790,13 @@
         <v>834.32</v>
       </c>
       <c r="M20" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N20" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P20">
         <v>3</v>
@@ -2805,28 +2807,28 @@
         <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J21" s="2">
         <v>4862.59</v>
@@ -2838,13 +2840,13 @@
         <v>1260.4100000000001</v>
       </c>
       <c r="M21" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N21" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P21">
         <v>3</v>
@@ -2855,28 +2857,28 @@
         <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D22" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J22" s="2">
         <v>709.81</v>
@@ -2888,13 +2890,13 @@
         <v>217.46</v>
       </c>
       <c r="M22" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N22" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="O22" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P22">
         <v>3</v>
@@ -2905,28 +2907,28 @@
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J23" s="2">
         <v>5875.5</v>
@@ -2938,13 +2940,13 @@
         <v>2160.54</v>
       </c>
       <c r="M23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N23" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="O23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P23">
         <v>3</v>
@@ -2955,28 +2957,28 @@
         <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J24" s="2">
         <v>9265.9</v>
@@ -2988,13 +2990,13 @@
         <v>1600.32</v>
       </c>
       <c r="M24" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N24" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P24">
         <v>4</v>
@@ -3005,28 +3007,28 @@
         <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J25" s="2">
         <v>9811.39</v>
@@ -3038,13 +3040,13 @@
         <v>2544.2199999999998</v>
       </c>
       <c r="M25" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N25" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P25">
         <v>4</v>
@@ -3055,28 +3057,28 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2">
         <v>33000</v>
@@ -3088,13 +3090,13 @@
         <v>2862.61</v>
       </c>
       <c r="M26" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N26" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="O26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P26">
         <v>4</v>
@@ -3105,28 +3107,28 @@
         <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J27" s="2">
         <v>73343.259999999995</v>
@@ -3138,13 +3140,13 @@
         <v>6581.89</v>
       </c>
       <c r="M27" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N27" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P27">
         <v>4</v>
@@ -3155,28 +3157,28 @@
         <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J28" s="2">
         <v>60320.42</v>
@@ -3188,13 +3190,13 @@
         <v>7209.87</v>
       </c>
       <c r="M28" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="O28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P28">
         <v>4</v>
@@ -3205,28 +3207,28 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J29" s="2">
         <v>40497.17</v>
@@ -3238,13 +3240,13 @@
         <v>3884.22</v>
       </c>
       <c r="M29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P29">
         <v>4</v>
@@ -3255,28 +3257,28 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G30" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J30" s="2">
         <v>3760.13</v>
@@ -3288,13 +3290,13 @@
         <v>2426.15</v>
       </c>
       <c r="M30" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N30" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="O30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P30">
         <v>4</v>
@@ -3305,28 +3307,28 @@
         <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J31" s="2">
         <v>39847.769999999997</v>
@@ -3338,13 +3340,13 @@
         <v>4329.8500000000004</v>
       </c>
       <c r="M31" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="O31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P31">
         <v>4</v>
@@ -3355,28 +3357,28 @@
         <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J32" s="2">
         <v>27863.85</v>
@@ -3388,13 +3390,13 @@
         <v>4622.62</v>
       </c>
       <c r="M32" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N32" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P32">
         <v>4</v>
@@ -3405,28 +3407,28 @@
         <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J33" s="2">
         <v>4557.21</v>
@@ -3438,13 +3440,13 @@
         <v>1359.85</v>
       </c>
       <c r="M33" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N33" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P33">
         <v>4</v>
@@ -3455,28 +3457,28 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J34" s="2">
         <v>85933.43</v>
@@ -3488,13 +3490,13 @@
         <v>8246.56</v>
       </c>
       <c r="M34" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="P34">
         <v>4</v>
@@ -3505,28 +3507,28 @@
         <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J35" s="2">
         <v>2749.01</v>
@@ -3538,13 +3540,13 @@
         <v>1148.92</v>
       </c>
       <c r="M35" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N35" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="O35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P35">
         <v>4</v>
@@ -3555,28 +3557,28 @@
         <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J36" s="2">
         <v>34474.93</v>
@@ -3588,13 +3590,13 @@
         <v>7092.41</v>
       </c>
       <c r="M36" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N36" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P36">
         <v>4</v>
@@ -3605,28 +3607,28 @@
         <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J37" s="2">
         <v>39300</v>
@@ -3638,13 +3640,13 @@
         <v>4666.62</v>
       </c>
       <c r="M37" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N37" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P37">
         <v>4</v>
@@ -3655,28 +3657,28 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J38" s="2">
         <v>33380</v>
@@ -3688,13 +3690,13 @@
         <v>3974.85</v>
       </c>
       <c r="M38" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N38" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="O38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P38">
         <v>5</v>
@@ -3705,28 +3707,28 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J39" s="2">
         <v>26952.74</v>
@@ -3738,13 +3740,13 @@
         <v>6588.6</v>
       </c>
       <c r="M39" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N39" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P39">
         <v>5</v>
@@ -3755,28 +3757,28 @@
         <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J40" s="2">
         <v>4660</v>
@@ -3788,13 +3790,13 @@
         <v>917.96</v>
       </c>
       <c r="M40" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N40" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="O40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P40">
         <v>5</v>
@@ -3805,28 +3807,28 @@
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G41" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J41" s="2">
         <v>44593.27</v>
@@ -3838,13 +3840,13 @@
         <v>7228.81</v>
       </c>
       <c r="M41" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N41" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="O41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P41">
         <v>5</v>
@@ -3855,28 +3857,28 @@
         <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G42" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J42" s="2">
         <v>12164.45</v>
@@ -3888,13 +3890,13 @@
         <v>4300.1899999999996</v>
       </c>
       <c r="M42" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N42" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O42" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P42">
         <v>5</v>
@@ -3905,28 +3907,28 @@
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J43" s="2">
         <v>794.62</v>
@@ -3938,13 +3940,13 @@
         <v>434.59</v>
       </c>
       <c r="M43" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N43" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P43">
         <v>5</v>
@@ -3955,28 +3957,28 @@
         <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G44" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J44" s="2">
         <v>5334.42</v>
@@ -3988,13 +3990,13 @@
         <v>888.82</v>
       </c>
       <c r="M44" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N44" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="O44" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P44">
         <v>5</v>
@@ -4005,28 +4007,28 @@
         <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J45" s="2">
         <v>22700</v>
@@ -4038,13 +4040,13 @@
         <v>3329.74</v>
       </c>
       <c r="M45" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N45" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="O45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P45">
         <v>5</v>
@@ -4055,28 +4057,28 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J46" s="2">
         <v>22025.58</v>
@@ -4088,13 +4090,13 @@
         <v>3440.98</v>
       </c>
       <c r="M46" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N46" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O46" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P46">
         <v>5</v>
@@ -4105,28 +4107,28 @@
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J47" s="2">
         <v>4290.63</v>
@@ -4138,13 +4140,13 @@
         <v>1658.65</v>
       </c>
       <c r="M47" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N47" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="O47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P47">
         <v>5</v>
@@ -4155,28 +4157,28 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J48" s="2">
         <v>6649.13</v>
@@ -4188,13 +4190,13 @@
         <v>1497.7</v>
       </c>
       <c r="M48" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N48" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P48">
         <v>5</v>
@@ -4205,28 +4207,28 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J49" s="2">
         <v>799.49</v>
@@ -4238,13 +4240,13 @@
         <v>868.1</v>
       </c>
       <c r="M49" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N49" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="O49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P49">
         <v>5</v>
@@ -4255,28 +4257,28 @@
         <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J50" s="2">
         <v>18922.240000000002</v>
@@ -4288,13 +4290,13 @@
         <v>2394.94</v>
       </c>
       <c r="M50" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N50" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="O50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P50">
         <v>5</v>
@@ -4305,28 +4307,28 @@
         <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J51" s="2">
         <v>4959.8999999999996</v>
@@ -4338,13 +4340,13 @@
         <v>2230.16</v>
       </c>
       <c r="M51" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N51" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O51" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P51">
         <v>5</v>
@@ -4355,28 +4357,28 @@
         <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J52" s="2">
         <v>3231.81</v>
@@ -4388,13 +4390,13 @@
         <v>1699.9</v>
       </c>
       <c r="M52" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N52" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P52">
         <v>6</v>
@@ -4405,28 +4407,28 @@
         <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J53" s="2">
         <v>18100</v>
@@ -4438,13 +4440,13 @@
         <v>2402.3200000000002</v>
       </c>
       <c r="M53" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N53" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O53" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P53">
         <v>6</v>
@@ -4455,28 +4457,28 @@
         <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J54" s="2">
         <v>3000</v>
@@ -4488,13 +4490,13 @@
         <v>1356.89</v>
       </c>
       <c r="M54" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N54" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="O54" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P54">
         <v>6</v>
@@ -4505,28 +4507,28 @@
         <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G55" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J55" s="2">
         <v>662.91</v>
@@ -4538,13 +4540,13 @@
         <v>742.19</v>
       </c>
       <c r="M55" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N55" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P55">
         <v>6</v>
@@ -4555,28 +4557,28 @@
         <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G56" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J56" s="2">
         <v>14600</v>
@@ -4588,13 +4590,13 @@
         <v>2292.38</v>
       </c>
       <c r="M56" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N56" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="O56" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P56">
         <v>7</v>
@@ -4605,28 +4607,28 @@
         <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G57" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J57" s="2">
         <v>11291.58</v>
@@ -4638,13 +4640,13 @@
         <v>3797.19</v>
       </c>
       <c r="M57" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N57" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O57" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P57">
         <v>7</v>
@@ -4655,28 +4657,28 @@
         <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J58" s="2">
         <v>25880.25</v>
@@ -4688,13 +4690,13 @@
         <v>9060.2199999999993</v>
       </c>
       <c r="M58" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N58" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O58" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P58">
         <v>7</v>
@@ -4705,28 +4707,28 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J59" s="2">
         <v>1347.14</v>
@@ -4738,13 +4740,13 @@
         <v>1533.27</v>
       </c>
       <c r="M59" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N59" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O59" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P59">
         <v>7</v>
@@ -4755,28 +4757,28 @@
         <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G60" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J60" s="2">
         <v>2904.95</v>
@@ -4788,13 +4790,13 @@
         <v>3311.84</v>
       </c>
       <c r="M60" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N60" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="O60" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P60">
         <v>7</v>
@@ -4805,28 +4807,28 @@
         <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J61" s="2">
         <v>3629.51</v>
@@ -4838,13 +4840,13 @@
         <v>2015.4</v>
       </c>
       <c r="M61" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N61" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="O61" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P61">
         <v>7</v>
@@ -4855,28 +4857,28 @@
         <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J62" s="2">
         <v>2507.86</v>
@@ -4888,13 +4890,13 @@
         <v>2843.59</v>
       </c>
       <c r="M62" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="N62" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="O62" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P62">
         <v>7</v>
@@ -4905,28 +4907,28 @@
         <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J63" s="2">
         <v>826.04</v>
@@ -4938,13 +4940,13 @@
         <v>863.79</v>
       </c>
       <c r="M63" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N63" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P63">
         <v>7</v>
@@ -4955,28 +4957,28 @@
         <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G64" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J64" s="2">
         <v>2420.2199999999998</v>
@@ -4988,13 +4990,13 @@
         <v>2778.37</v>
       </c>
       <c r="M64" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N64" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O64" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P64">
         <v>7</v>
@@ -5005,28 +5007,28 @@
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G65" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J65" s="2">
         <v>3900</v>
@@ -5038,13 +5040,13 @@
         <v>2235.5300000000002</v>
       </c>
       <c r="M65" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N65" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="O65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P65">
         <v>8</v>
@@ -5055,28 +5057,28 @@
         <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G66" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J66" s="2">
         <v>80296.100000000006</v>
@@ -5088,13 +5090,13 @@
         <v>19355.28</v>
       </c>
       <c r="M66" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N66" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="O66" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P66">
         <v>8</v>
@@ -5105,28 +5107,28 @@
         <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G67" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J67" s="2">
         <v>3245.36</v>
@@ -5138,13 +5140,13 @@
         <v>1714.59</v>
       </c>
       <c r="M67" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N67" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="O67" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P67">
         <v>9</v>
@@ -5155,28 +5157,28 @@
         <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J68" s="2">
         <v>186</v>
@@ -5188,13 +5190,13 @@
         <v>274.08</v>
       </c>
       <c r="M68" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N68" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O68" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P68">
         <v>9</v>
@@ -5205,28 +5207,28 @@
         <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G69" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J69" s="2">
         <v>3500</v>
@@ -5238,13 +5240,13 @@
         <v>4111.17</v>
       </c>
       <c r="M69" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N69" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="O69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="P69">
         <v>9</v>
@@ -5255,28 +5257,28 @@
         <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G70" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J70" s="2">
         <v>17783.18</v>
@@ -5288,13 +5290,13 @@
         <v>7926.66</v>
       </c>
       <c r="M70" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N70" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="O70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P70">
         <v>10</v>
@@ -5305,28 +5307,28 @@
         <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G71" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J71" s="2">
         <v>17350</v>
@@ -5338,13 +5340,13 @@
         <v>10256.86</v>
       </c>
       <c r="M71" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N71" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="O71" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P71">
         <v>10</v>
@@ -5355,28 +5357,28 @@
         <v>107</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G72" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J72" s="2">
         <v>2954.2</v>
@@ -5388,13 +5390,13 @@
         <v>2581.91</v>
       </c>
       <c r="M72" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N72" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="O72" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P72">
         <v>10</v>
@@ -5405,28 +5407,28 @@
         <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G73" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J73" s="2">
         <v>3131.1</v>
@@ -5438,13 +5440,13 @@
         <v>2089.4899999999998</v>
       </c>
       <c r="M73" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N73" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="O73" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P73">
         <v>10</v>
@@ -5455,28 +5457,28 @@
         <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G74" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J74" s="2">
         <v>10728.51</v>
@@ -5488,13 +5490,13 @@
         <v>8791.43</v>
       </c>
       <c r="M74" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N74" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="O74" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P74">
         <v>10</v>
@@ -5505,28 +5507,28 @@
         <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G75" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J75" s="2">
         <v>2245.27</v>
@@ -5538,13 +5540,13 @@
         <v>2717.13</v>
       </c>
       <c r="M75" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N75" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="O75" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P75">
         <v>10</v>
@@ -5555,28 +5557,28 @@
         <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G76" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J76" s="2">
         <v>4053.03</v>
@@ -5588,13 +5590,13 @@
         <v>1912.73</v>
       </c>
       <c r="M76" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N76" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O76" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P76">
         <v>11</v>
@@ -5605,28 +5607,28 @@
         <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E77" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G77" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J77" s="2">
         <v>2200</v>
@@ -5638,13 +5640,13 @@
         <v>784.91</v>
       </c>
       <c r="M77" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N77" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O77" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P77">
         <v>11</v>
@@ -5655,28 +5657,28 @@
         <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E78" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G78" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J78" s="2">
         <v>66000</v>
@@ -5688,13 +5690,13 @@
         <v>15901.53</v>
       </c>
       <c r="M78" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N78" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O78" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P78">
         <v>11</v>
@@ -5705,28 +5707,28 @@
         <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G79" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J79" s="2">
         <v>1100</v>
@@ -5738,13 +5740,13 @@
         <v>1376.02</v>
       </c>
       <c r="M79" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N79" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="O79" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P79">
         <v>11</v>
@@ -5755,28 +5757,28 @@
         <v>107</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G80" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J80" s="2">
         <v>1676.5</v>
@@ -5788,13 +5790,13 @@
         <v>1992.9</v>
       </c>
       <c r="M80" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O80" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P80">
         <v>11</v>
@@ -5805,28 +5807,28 @@
         <v>107</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G81" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J81" s="2">
         <v>3300</v>
@@ -5838,13 +5840,13 @@
         <v>1335.74</v>
       </c>
       <c r="M81" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N81" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="O81" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P81">
         <v>12</v>
@@ -5855,28 +5857,28 @@
         <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E82" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G82" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J82" s="2">
         <v>6900</v>
@@ -5888,13 +5890,13 @@
         <v>4845.18</v>
       </c>
       <c r="M82" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N82" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O82" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P82">
         <v>12</v>
@@ -5905,28 +5907,28 @@
         <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G83" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J83" s="2">
         <v>2863</v>
@@ -5938,13 +5940,13 @@
         <v>2397.0300000000002</v>
       </c>
       <c r="M83" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N83" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O83" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P83">
         <v>12</v>
@@ -5955,28 +5957,28 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G84" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J84" s="2">
         <v>85919.89</v>
@@ -5988,13 +5990,13 @@
         <v>26322.21</v>
       </c>
       <c r="M84" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N84" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P84">
         <v>12</v>
@@ -6005,28 +6007,28 @@
         <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G85" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J85" s="2">
         <v>3000</v>
@@ -6038,13 +6040,13 @@
         <v>3080.25</v>
       </c>
       <c r="M85" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N85" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="O85" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P85">
         <v>12</v>
@@ -6055,28 +6057,28 @@
         <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G86" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J86" s="2">
         <v>90000</v>
@@ -6088,13 +6090,13 @@
         <v>25162.87</v>
       </c>
       <c r="M86" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N86" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="O86" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P86">
         <v>12</v>
@@ -6105,28 +6107,28 @@
         <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G87" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J87" s="2">
         <v>17200</v>
@@ -6138,13 +6140,13 @@
         <v>6669.95</v>
       </c>
       <c r="M87" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N87" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="O87" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P87">
         <v>13</v>
@@ -6155,28 +6157,28 @@
         <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D88" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G88" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J88" s="2">
         <v>2600</v>
@@ -6188,13 +6190,13 @@
         <v>1656.32</v>
       </c>
       <c r="M88" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N88" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="O88" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="P88">
         <v>13</v>
@@ -6205,28 +6207,28 @@
         <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G89" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J89" s="2">
         <v>3121.64</v>
@@ -6238,13 +6240,13 @@
         <v>2898.52</v>
       </c>
       <c r="M89" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N89" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O89" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P89">
         <v>13</v>
@@ -6255,28 +6257,28 @@
         <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G90" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J90" s="2">
         <v>3200</v>
@@ -6288,13 +6290,13 @@
         <v>1495.78</v>
       </c>
       <c r="M90" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N90" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O90" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P90">
         <v>14</v>

--- a/base/IMPULSA GESTOR VENCIDOS Y CASTIGADOS octubre25.xlsx
+++ b/base/IMPULSA GESTOR VENCIDOS Y CASTIGADOS octubre25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Documents\CallCenter-Excel\CLIENTE-IDE\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E2B65-03DC-45A6-A400-2351506A26F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0674C1-FE1C-4B44-92DF-2042785F02D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$I$1:$S$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$B$91</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1775,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6303,6 +6303,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>